--- a/scalpel/typeinfer/evaluation/evaluation_outputs/psf__black.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/psf__black.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1398"/>
+  <dimension ref="A1:F1399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>{'num', 'int'}</t>
+          <t>{'int', 'num'}</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>num</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>{'num', 'int'}</t>
+          <t>{'int', 'num'}</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
@@ -1312,12 +1312,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>num</t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>{'bool', 'empty'}</t>
+          <t>{'empty', 'bool'}</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
@@ -2844,12 +2844,12 @@
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>bool</t>
-        </is>
-      </c>
-      <c r="F75" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F75" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'str'}</t>
+          <t>{'str', 'any'}</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F111" s="4" t="inlineStr">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'str'}</t>
+          <t>{'str', 'empty'}</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr">
@@ -4828,12 +4828,12 @@
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F137" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F137" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F159" s="4" t="inlineStr">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F160" s="4" t="inlineStr">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F163" s="4" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F164" s="4" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="E177" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F177" s="4" t="inlineStr">
@@ -6140,7 +6140,7 @@
       </c>
       <c r="E178" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F178" s="4" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="E179" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F179" s="4" t="inlineStr">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="E180" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F180" s="4" t="inlineStr">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="E252" s="2" t="inlineStr">
         <is>
-          <t>{'bool', 'empty'}</t>
+          <t>{'empty', 'bool'}</t>
         </is>
       </c>
       <c r="F252" s="3" t="inlineStr">
@@ -8540,12 +8540,12 @@
       </c>
       <c r="E253" s="2" t="inlineStr">
         <is>
-          <t>bool</t>
-        </is>
-      </c>
-      <c r="F253" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F253" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -9212,7 +9212,7 @@
       </c>
       <c r="E274" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F274" s="4" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="E275" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F275" s="4" t="inlineStr">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="E286" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[int]', 'Tuple[any]'}</t>
+          <t>{'Tuple[any]', 'Tuple[int]'}</t>
         </is>
       </c>
       <c r="F286" s="3" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="E287" s="2" t="inlineStr">
         <is>
-          <t>Tuple[int]</t>
+          <t>Tuple[any]</t>
         </is>
       </c>
       <c r="F287" s="3" t="inlineStr">
@@ -10172,7 +10172,7 @@
       </c>
       <c r="E304" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F304" s="4" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="E305" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F305" s="4" t="inlineStr">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="E314" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[int]', 'Tuple[any]'}</t>
+          <t>{'Tuple[any]', 'Tuple[int]'}</t>
         </is>
       </c>
       <c r="F314" s="3" t="inlineStr">
@@ -10524,7 +10524,7 @@
       </c>
       <c r="E315" s="2" t="inlineStr">
         <is>
-          <t>Tuple[int]</t>
+          <t>Tuple[any]</t>
         </is>
       </c>
       <c r="F315" s="3" t="inlineStr">
@@ -10556,7 +10556,7 @@
       </c>
       <c r="E316" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[int]', 'Tuple[any]'}</t>
+          <t>{'Tuple[any]', 'Tuple[int]'}</t>
         </is>
       </c>
       <c r="F316" s="3" t="inlineStr">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="E317" s="2" t="inlineStr">
         <is>
-          <t>Tuple[int]</t>
+          <t>Tuple[any]</t>
         </is>
       </c>
       <c r="F317" s="3" t="inlineStr">
@@ -12252,7 +12252,7 @@
       </c>
       <c r="E369" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'str'}</t>
+          <t>{'str', 'empty'}</t>
         </is>
       </c>
       <c r="F369" s="3" t="inlineStr">
@@ -12284,12 +12284,12 @@
       </c>
       <c r="E370" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F370" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F370" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -16636,7 +16636,7 @@
       </c>
       <c r="E506" s="2" t="inlineStr">
         <is>
-          <t>{'List[any]', 'List[None]'}</t>
+          <t>{'List[None]', 'List[any]'}</t>
         </is>
       </c>
       <c r="F506" s="3" t="inlineStr">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="E507" s="2" t="inlineStr">
         <is>
-          <t>List[any]</t>
+          <t>List[None]</t>
         </is>
       </c>
       <c r="F507" s="3" t="inlineStr">
@@ -17980,7 +17980,7 @@
       </c>
       <c r="E548" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'str'}</t>
+          <t>{'str', 'empty'}</t>
         </is>
       </c>
       <c r="F548" s="3" t="inlineStr">
@@ -18012,12 +18012,12 @@
       </c>
       <c r="E549" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F549" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F549" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -18684,7 +18684,7 @@
       </c>
       <c r="E570" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F570" s="4" t="inlineStr">
@@ -18716,7 +18716,7 @@
       </c>
       <c r="E571" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F571" s="4" t="inlineStr">
@@ -19004,7 +19004,7 @@
       </c>
       <c r="E580" s="2" t="inlineStr">
         <is>
-          <t>{'TErr', 'Ok'}</t>
+          <t>{'Ok', 'TErr'}</t>
         </is>
       </c>
       <c r="F580" s="4" t="inlineStr">
@@ -19036,7 +19036,7 @@
       </c>
       <c r="E581" s="2" t="inlineStr">
         <is>
-          <t>TErr</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="F581" s="4" t="inlineStr">
@@ -19068,7 +19068,7 @@
       </c>
       <c r="E582" s="2" t="inlineStr">
         <is>
-          <t>{'Err', 'empty', 'Ok'}</t>
+          <t>{'Ok', 'empty', 'Err'}</t>
         </is>
       </c>
       <c r="F582" s="4" t="inlineStr">
@@ -19100,7 +19100,7 @@
       </c>
       <c r="E583" s="2" t="inlineStr">
         <is>
-          <t>Err</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="F583" s="4" t="inlineStr">
@@ -19132,7 +19132,7 @@
       </c>
       <c r="E584" s="2" t="inlineStr">
         <is>
-          <t>{'TErr', 'Ok'}</t>
+          <t>{'Ok', 'TErr'}</t>
         </is>
       </c>
       <c r="F584" s="4" t="inlineStr">
@@ -19164,7 +19164,7 @@
       </c>
       <c r="E585" s="2" t="inlineStr">
         <is>
-          <t>TErr</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="F585" s="4" t="inlineStr">
@@ -19196,7 +19196,7 @@
       </c>
       <c r="E586" s="2" t="inlineStr">
         <is>
-          <t>{'TErr', 'Ok'}</t>
+          <t>{'Ok', 'TErr'}</t>
         </is>
       </c>
       <c r="F586" s="4" t="inlineStr">
@@ -19228,7 +19228,7 @@
       </c>
       <c r="E587" s="2" t="inlineStr">
         <is>
-          <t>TErr</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="F587" s="4" t="inlineStr">
@@ -19260,7 +19260,7 @@
       </c>
       <c r="E588" s="2" t="inlineStr">
         <is>
-          <t>{'TErr', 'Ok'}</t>
+          <t>{'Ok', 'TErr'}</t>
         </is>
       </c>
       <c r="F588" s="4" t="inlineStr">
@@ -19292,7 +19292,7 @@
       </c>
       <c r="E589" s="2" t="inlineStr">
         <is>
-          <t>TErr</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="F589" s="4" t="inlineStr">
@@ -19452,7 +19452,7 @@
       </c>
       <c r="E594" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F594" s="4" t="inlineStr">
@@ -19484,7 +19484,7 @@
       </c>
       <c r="E595" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F595" s="4" t="inlineStr">
@@ -20412,7 +20412,7 @@
       </c>
       <c r="E624" s="2" t="inlineStr">
         <is>
-          <t>{'TErr', 'Ok'}</t>
+          <t>{'Ok', 'TErr'}</t>
         </is>
       </c>
       <c r="F624" s="4" t="inlineStr">
@@ -20444,7 +20444,7 @@
       </c>
       <c r="E625" s="2" t="inlineStr">
         <is>
-          <t>TErr</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="F625" s="4" t="inlineStr">
@@ -20540,7 +20540,7 @@
       </c>
       <c r="E628" s="2" t="inlineStr">
         <is>
-          <t>{'TErr', 'Ok'}</t>
+          <t>{'Ok', 'TErr'}</t>
         </is>
       </c>
       <c r="F628" s="4" t="inlineStr">
@@ -20572,7 +20572,7 @@
       </c>
       <c r="E629" s="2" t="inlineStr">
         <is>
-          <t>TErr</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="F629" s="4" t="inlineStr">
@@ -20604,7 +20604,7 @@
       </c>
       <c r="E630" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'Ok'}</t>
+          <t>{'Ok', 'empty'}</t>
         </is>
       </c>
       <c r="F630" s="4" t="inlineStr">
@@ -20636,7 +20636,7 @@
       </c>
       <c r="E631" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="F631" s="4" t="inlineStr">
@@ -20668,7 +20668,7 @@
       </c>
       <c r="E632" s="2" t="inlineStr">
         <is>
-          <t>{'TErr', 'Ok'}</t>
+          <t>{'Ok', 'TErr'}</t>
         </is>
       </c>
       <c r="F632" s="4" t="inlineStr">
@@ -20700,7 +20700,7 @@
       </c>
       <c r="E633" s="2" t="inlineStr">
         <is>
-          <t>TErr</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="F633" s="4" t="inlineStr">
@@ -20732,7 +20732,7 @@
       </c>
       <c r="E634" s="2" t="inlineStr">
         <is>
-          <t>{'TErr', 'Ok'}</t>
+          <t>{'Ok', 'TErr'}</t>
         </is>
       </c>
       <c r="F634" s="4" t="inlineStr">
@@ -20764,7 +20764,7 @@
       </c>
       <c r="E635" s="2" t="inlineStr">
         <is>
-          <t>TErr</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="F635" s="4" t="inlineStr">
@@ -20796,7 +20796,7 @@
       </c>
       <c r="E636" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F636" s="4" t="inlineStr">
@@ -20828,7 +20828,7 @@
       </c>
       <c r="E637" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F637" s="4" t="inlineStr">
@@ -20860,7 +20860,7 @@
       </c>
       <c r="E638" s="2" t="inlineStr">
         <is>
-          <t>{'TErr', 'Ok'}</t>
+          <t>{'Ok', 'TErr'}</t>
         </is>
       </c>
       <c r="F638" s="4" t="inlineStr">
@@ -20892,7 +20892,7 @@
       </c>
       <c r="E639" s="2" t="inlineStr">
         <is>
-          <t>TErr</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="F639" s="4" t="inlineStr">
@@ -20924,7 +20924,7 @@
       </c>
       <c r="E640" s="2" t="inlineStr">
         <is>
-          <t>{'TErr', 'Ok'}</t>
+          <t>{'Ok', 'TErr'}</t>
         </is>
       </c>
       <c r="F640" s="4" t="inlineStr">
@@ -20956,7 +20956,7 @@
       </c>
       <c r="E641" s="2" t="inlineStr">
         <is>
-          <t>TErr</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="F641" s="4" t="inlineStr">
@@ -20988,7 +20988,7 @@
       </c>
       <c r="E642" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F642" s="4" t="inlineStr">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="E643" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F643" s="4" t="inlineStr">
@@ -21116,7 +21116,7 @@
       </c>
       <c r="E646" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F646" s="4" t="inlineStr">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="E647" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F647" s="4" t="inlineStr">
@@ -21308,7 +21308,7 @@
       </c>
       <c r="E652" s="2" t="inlineStr">
         <is>
-          <t>{'TErr', 'Ok'}</t>
+          <t>{'Ok', 'TErr'}</t>
         </is>
       </c>
       <c r="F652" s="4" t="inlineStr">
@@ -21340,7 +21340,7 @@
       </c>
       <c r="E653" s="2" t="inlineStr">
         <is>
-          <t>TErr</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="F653" s="4" t="inlineStr">
@@ -21692,7 +21692,7 @@
       </c>
       <c r="E664" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F664" s="4" t="inlineStr">
@@ -21724,7 +21724,7 @@
       </c>
       <c r="E665" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F665" s="4" t="inlineStr">
@@ -25980,7 +25980,7 @@
       </c>
       <c r="E798" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'str'}</t>
+          <t>{'str', 'any'}</t>
         </is>
       </c>
       <c r="F798" s="3" t="inlineStr">
@@ -26012,12 +26012,12 @@
       </c>
       <c r="E799" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F799" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F799" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -28636,7 +28636,7 @@
       </c>
       <c r="E881" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'Leaf', 'empty', 'Node'}</t>
+          <t>{'Node', 'any', 'Leaf', 'empty'}</t>
         </is>
       </c>
       <c r="F881" s="4" t="inlineStr">
@@ -28668,7 +28668,7 @@
       </c>
       <c r="E882" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>Node</t>
         </is>
       </c>
       <c r="F882" s="4" t="inlineStr">
@@ -28700,7 +28700,7 @@
       </c>
       <c r="E883" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F883" s="4" t="inlineStr">
@@ -28732,7 +28732,7 @@
       </c>
       <c r="E884" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F884" s="4" t="inlineStr">
@@ -29340,7 +29340,7 @@
       </c>
       <c r="E903" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'str'}</t>
+          <t>{'str', 'any'}</t>
         </is>
       </c>
       <c r="F903" s="3" t="inlineStr">
@@ -29372,12 +29372,12 @@
       </c>
       <c r="E904" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F904" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F904" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -29404,7 +29404,7 @@
       </c>
       <c r="E905" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'str'}</t>
+          <t>{'str', 'empty'}</t>
         </is>
       </c>
       <c r="F905" s="3" t="inlineStr">
@@ -29436,12 +29436,12 @@
       </c>
       <c r="E906" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F906" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F906" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -29976,7 +29976,7 @@
       </c>
       <c r="E923" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F923" s="4" t="inlineStr">
@@ -30008,7 +30008,7 @@
       </c>
       <c r="E924" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F924" s="4" t="inlineStr">
@@ -30360,7 +30360,7 @@
       </c>
       <c r="E935" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'str'}</t>
+          <t>{'str', 'empty'}</t>
         </is>
       </c>
       <c r="F935" s="3" t="inlineStr">
@@ -30392,12 +30392,12 @@
       </c>
       <c r="E936" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F936" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F936" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -30744,7 +30744,7 @@
       </c>
       <c r="E947" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'str'}</t>
+          <t>{'str', 'empty'}</t>
         </is>
       </c>
       <c r="F947" s="3" t="inlineStr">
@@ -30776,12 +30776,12 @@
       </c>
       <c r="E948" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F948" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F948" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -31252,7 +31252,7 @@
       </c>
       <c r="E963" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'str'}</t>
+          <t>{'str', 'empty'}</t>
         </is>
       </c>
       <c r="F963" s="3" t="inlineStr">
@@ -31284,12 +31284,12 @@
       </c>
       <c r="E964" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F964" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F964" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -31444,7 +31444,7 @@
       </c>
       <c r="E969" s="2" t="inlineStr">
         <is>
-          <t>{'bool', 'empty'}</t>
+          <t>{'empty', 'bool'}</t>
         </is>
       </c>
       <c r="F969" s="3" t="inlineStr">
@@ -31476,12 +31476,12 @@
       </c>
       <c r="E970" s="2" t="inlineStr">
         <is>
-          <t>bool</t>
-        </is>
-      </c>
-      <c r="F970" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F970" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -31508,7 +31508,7 @@
       </c>
       <c r="E971" s="2" t="inlineStr">
         <is>
-          <t>{'bool', 'empty'}</t>
+          <t>{'empty', 'bool'}</t>
         </is>
       </c>
       <c r="F971" s="3" t="inlineStr">
@@ -31540,12 +31540,12 @@
       </c>
       <c r="E972" s="2" t="inlineStr">
         <is>
-          <t>bool</t>
-        </is>
-      </c>
-      <c r="F972" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F972" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -31636,7 +31636,7 @@
       </c>
       <c r="E975" s="2" t="inlineStr">
         <is>
-          <t>{'bool', 'empty'}</t>
+          <t>{'empty', 'bool'}</t>
         </is>
       </c>
       <c r="F975" s="3" t="inlineStr">
@@ -31668,12 +31668,12 @@
       </c>
       <c r="E976" s="2" t="inlineStr">
         <is>
-          <t>bool</t>
-        </is>
-      </c>
-      <c r="F976" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F976" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -32276,7 +32276,7 @@
       </c>
       <c r="E995" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F995" s="4" t="inlineStr">
@@ -32308,7 +32308,7 @@
       </c>
       <c r="E996" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F996" s="4" t="inlineStr">
@@ -32468,7 +32468,7 @@
       </c>
       <c r="E1001" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F1001" s="4" t="inlineStr">
@@ -32500,7 +32500,7 @@
       </c>
       <c r="E1002" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F1002" s="4" t="inlineStr">
@@ -36372,7 +36372,7 @@
       </c>
       <c r="E1123" s="2" t="inlineStr">
         <is>
-          <t>{'bool', 'empty'}</t>
+          <t>{'empty', 'bool'}</t>
         </is>
       </c>
       <c r="F1123" s="3" t="inlineStr">
@@ -36404,12 +36404,12 @@
       </c>
       <c r="E1124" s="2" t="inlineStr">
         <is>
-          <t>bool</t>
-        </is>
-      </c>
-      <c r="F1124" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F1124" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -36436,7 +36436,7 @@
       </c>
       <c r="E1125" s="2" t="inlineStr">
         <is>
-          <t>{'bool', 'empty'}</t>
+          <t>{'empty', 'bool'}</t>
         </is>
       </c>
       <c r="F1125" s="4" t="inlineStr">
@@ -36468,7 +36468,7 @@
       </c>
       <c r="E1126" s="2" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="F1126" s="4" t="inlineStr">
@@ -36500,7 +36500,7 @@
       </c>
       <c r="E1127" s="2" t="inlineStr">
         <is>
-          <t>{'bool', 'empty'}</t>
+          <t>{'empty', 'bool'}</t>
         </is>
       </c>
       <c r="F1127" s="3" t="inlineStr">
@@ -36532,12 +36532,12 @@
       </c>
       <c r="E1128" s="2" t="inlineStr">
         <is>
-          <t>bool</t>
-        </is>
-      </c>
-      <c r="F1128" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F1128" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -36564,7 +36564,7 @@
       </c>
       <c r="E1129" s="2" t="inlineStr">
         <is>
-          <t>{'bool', 'empty'}</t>
+          <t>{'empty', 'bool'}</t>
         </is>
       </c>
       <c r="F1129" s="4" t="inlineStr">
@@ -36596,7 +36596,7 @@
       </c>
       <c r="E1130" s="2" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="F1130" s="4" t="inlineStr">
@@ -39412,7 +39412,7 @@
       </c>
       <c r="E1218" s="2" t="inlineStr">
         <is>
-          <t>{'bool', 'empty'}</t>
+          <t>{'empty', 'bool'}</t>
         </is>
       </c>
       <c r="F1218" s="3" t="inlineStr">
@@ -39444,12 +39444,12 @@
       </c>
       <c r="E1219" s="2" t="inlineStr">
         <is>
-          <t>bool</t>
-        </is>
-      </c>
-      <c r="F1219" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F1219" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -39540,7 +39540,7 @@
       </c>
       <c r="E1222" s="2" t="inlineStr">
         <is>
-          <t>{'bool', 'empty'}</t>
+          <t>{'empty', 'bool'}</t>
         </is>
       </c>
       <c r="F1222" s="3" t="inlineStr">
@@ -39572,12 +39572,12 @@
       </c>
       <c r="E1223" s="2" t="inlineStr">
         <is>
-          <t>bool</t>
-        </is>
-      </c>
-      <c r="F1223" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F1223" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -41236,7 +41236,7 @@
       </c>
       <c r="E1275" s="2" t="inlineStr">
         <is>
-          <t>{'bool', 'empty'}</t>
+          <t>{'empty', 'bool'}</t>
         </is>
       </c>
       <c r="F1275" s="3" t="inlineStr">
@@ -41268,12 +41268,12 @@
       </c>
       <c r="E1276" s="2" t="inlineStr">
         <is>
-          <t>bool</t>
-        </is>
-      </c>
-      <c r="F1276" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F1276" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -41812,7 +41812,7 @@
       </c>
       <c r="E1293" s="2" t="inlineStr">
         <is>
-          <t>{'bool', 'empty'}</t>
+          <t>{'empty', 'bool'}</t>
         </is>
       </c>
       <c r="F1293" s="3" t="inlineStr">
@@ -41844,12 +41844,12 @@
       </c>
       <c r="E1294" s="2" t="inlineStr">
         <is>
-          <t>bool</t>
-        </is>
-      </c>
-      <c r="F1294" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F1294" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -44372,7 +44372,7 @@
       </c>
       <c r="E1373" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'generator'}</t>
+          <t>{'generator', 'empty'}</t>
         </is>
       </c>
       <c r="F1373" s="4" t="inlineStr">
@@ -44404,7 +44404,7 @@
       </c>
       <c r="E1374" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>generator</t>
         </is>
       </c>
       <c r="F1374" s="4" t="inlineStr">
@@ -45146,14 +45146,28 @@
     <row r="1398">
       <c r="A1398" s="2" t="inlineStr"/>
       <c r="B1398" s="2" t="inlineStr"/>
-      <c r="C1398" s="2" t="inlineStr"/>
-      <c r="D1398" s="2" t="inlineStr"/>
-      <c r="E1398" s="2" t="inlineStr">
+      <c r="C1398" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D1398" s="2" t="n">
+        <v>366.56</v>
+      </c>
+      <c r="E1398" s="2" t="inlineStr"/>
+      <c r="F1398" s="2" t="inlineStr"/>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="2" t="inlineStr"/>
+      <c r="B1399" s="2" t="inlineStr"/>
+      <c r="C1399" s="2" t="inlineStr"/>
+      <c r="D1399" s="2" t="inlineStr"/>
+      <c r="E1399" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F1398" s="2" t="n">
+      <c r="F1399" s="2" t="n">
         <v>34.11</v>
       </c>
     </row>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/psf__black.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/psf__black.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'int'}</t>
+          <t>{'int', 'any'}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -608,12 +608,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'bool'}</t>
+          <t>{'bool', 'empty'}</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
@@ -2844,12 +2844,12 @@
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F75" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F75" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'bool'}</t>
+          <t>{'bool', 'any'}</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr">
@@ -3932,12 +3932,12 @@
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F109" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F109" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[None]', 'Tuple[any]'}</t>
+          <t>{'Tuple[any]', 'Tuple[None]'}</t>
         </is>
       </c>
       <c r="F138" s="3" t="inlineStr">
@@ -4892,7 +4892,7 @@
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
-          <t>Tuple[None]</t>
+          <t>Tuple[any]</t>
         </is>
       </c>
       <c r="F139" s="3" t="inlineStr">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="E252" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'bool'}</t>
+          <t>{'bool', 'empty'}</t>
         </is>
       </c>
       <c r="F252" s="3" t="inlineStr">
@@ -8540,12 +8540,12 @@
       </c>
       <c r="E253" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F253" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F253" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="E268" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'bool'}</t>
+          <t>{'bool', 'any'}</t>
         </is>
       </c>
       <c r="F268" s="3" t="inlineStr">
@@ -9052,12 +9052,12 @@
       </c>
       <c r="E269" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F269" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F269" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -9980,7 +9980,7 @@
       </c>
       <c r="E298" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'bool'}</t>
+          <t>{'bool', 'any'}</t>
         </is>
       </c>
       <c r="F298" s="3" t="inlineStr">
@@ -10012,12 +10012,12 @@
       </c>
       <c r="E299" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F299" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F299" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -12316,7 +12316,7 @@
       </c>
       <c r="E371" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'Leaf'}</t>
+          <t>{'Leaf', 'any'}</t>
         </is>
       </c>
       <c r="F371" s="4" t="inlineStr">
@@ -12348,7 +12348,7 @@
       </c>
       <c r="E372" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="F372" s="4" t="inlineStr">
@@ -19004,7 +19004,7 @@
       </c>
       <c r="E580" s="2" t="inlineStr">
         <is>
-          <t>{'Ok', 'TErr'}</t>
+          <t>{'TErr', 'Ok'}</t>
         </is>
       </c>
       <c r="F580" s="4" t="inlineStr">
@@ -19036,7 +19036,7 @@
       </c>
       <c r="E581" s="2" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>TErr</t>
         </is>
       </c>
       <c r="F581" s="4" t="inlineStr">
@@ -19068,7 +19068,7 @@
       </c>
       <c r="E582" s="2" t="inlineStr">
         <is>
-          <t>{'Ok', 'empty', 'Err'}</t>
+          <t>{'Err', 'Ok', 'empty'}</t>
         </is>
       </c>
       <c r="F582" s="4" t="inlineStr">
@@ -19100,7 +19100,7 @@
       </c>
       <c r="E583" s="2" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Err</t>
         </is>
       </c>
       <c r="F583" s="4" t="inlineStr">
@@ -19132,7 +19132,7 @@
       </c>
       <c r="E584" s="2" t="inlineStr">
         <is>
-          <t>{'Ok', 'TErr'}</t>
+          <t>{'TErr', 'Ok'}</t>
         </is>
       </c>
       <c r="F584" s="4" t="inlineStr">
@@ -19164,7 +19164,7 @@
       </c>
       <c r="E585" s="2" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>TErr</t>
         </is>
       </c>
       <c r="F585" s="4" t="inlineStr">
@@ -19196,7 +19196,7 @@
       </c>
       <c r="E586" s="2" t="inlineStr">
         <is>
-          <t>{'Ok', 'TErr'}</t>
+          <t>{'TErr', 'Ok'}</t>
         </is>
       </c>
       <c r="F586" s="4" t="inlineStr">
@@ -19228,7 +19228,7 @@
       </c>
       <c r="E587" s="2" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>TErr</t>
         </is>
       </c>
       <c r="F587" s="4" t="inlineStr">
@@ -19260,7 +19260,7 @@
       </c>
       <c r="E588" s="2" t="inlineStr">
         <is>
-          <t>{'Ok', 'TErr'}</t>
+          <t>{'TErr', 'Ok'}</t>
         </is>
       </c>
       <c r="F588" s="4" t="inlineStr">
@@ -19292,7 +19292,7 @@
       </c>
       <c r="E589" s="2" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>TErr</t>
         </is>
       </c>
       <c r="F589" s="4" t="inlineStr">
@@ -19516,7 +19516,7 @@
       </c>
       <c r="E596" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'empty', 'int'}</t>
+          <t>{'int', 'any', 'empty'}</t>
         </is>
       </c>
       <c r="F596" s="4" t="inlineStr">
@@ -19548,7 +19548,7 @@
       </c>
       <c r="E597" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>int</t>
         </is>
       </c>
       <c r="F597" s="4" t="inlineStr">
@@ -19708,7 +19708,7 @@
       </c>
       <c r="E602" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'bool'}</t>
+          <t>{'bool', 'any'}</t>
         </is>
       </c>
       <c r="F602" s="4" t="inlineStr">
@@ -19740,7 +19740,7 @@
       </c>
       <c r="E603" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="F603" s="4" t="inlineStr">
@@ -19772,7 +19772,7 @@
       </c>
       <c r="E604" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'bool'}</t>
+          <t>{'bool', 'any'}</t>
         </is>
       </c>
       <c r="F604" s="4" t="inlineStr">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="E605" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="F605" s="4" t="inlineStr">
@@ -20028,7 +20028,7 @@
       </c>
       <c r="E612" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'int'}</t>
+          <t>{'int', 'empty'}</t>
         </is>
       </c>
       <c r="F612" s="3" t="inlineStr">
@@ -20060,12 +20060,12 @@
       </c>
       <c r="E613" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F613" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="F613" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -20412,7 +20412,7 @@
       </c>
       <c r="E624" s="2" t="inlineStr">
         <is>
-          <t>{'Ok', 'TErr'}</t>
+          <t>{'TErr', 'Ok'}</t>
         </is>
       </c>
       <c r="F624" s="4" t="inlineStr">
@@ -20444,7 +20444,7 @@
       </c>
       <c r="E625" s="2" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>TErr</t>
         </is>
       </c>
       <c r="F625" s="4" t="inlineStr">
@@ -20540,7 +20540,7 @@
       </c>
       <c r="E628" s="2" t="inlineStr">
         <is>
-          <t>{'Ok', 'TErr'}</t>
+          <t>{'TErr', 'Ok'}</t>
         </is>
       </c>
       <c r="F628" s="4" t="inlineStr">
@@ -20572,7 +20572,7 @@
       </c>
       <c r="E629" s="2" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>TErr</t>
         </is>
       </c>
       <c r="F629" s="4" t="inlineStr">
@@ -20668,7 +20668,7 @@
       </c>
       <c r="E632" s="2" t="inlineStr">
         <is>
-          <t>{'Ok', 'TErr'}</t>
+          <t>{'TErr', 'Ok'}</t>
         </is>
       </c>
       <c r="F632" s="4" t="inlineStr">
@@ -20700,7 +20700,7 @@
       </c>
       <c r="E633" s="2" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>TErr</t>
         </is>
       </c>
       <c r="F633" s="4" t="inlineStr">
@@ -20732,7 +20732,7 @@
       </c>
       <c r="E634" s="2" t="inlineStr">
         <is>
-          <t>{'Ok', 'TErr'}</t>
+          <t>{'TErr', 'Ok'}</t>
         </is>
       </c>
       <c r="F634" s="4" t="inlineStr">
@@ -20764,7 +20764,7 @@
       </c>
       <c r="E635" s="2" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>TErr</t>
         </is>
       </c>
       <c r="F635" s="4" t="inlineStr">
@@ -20860,7 +20860,7 @@
       </c>
       <c r="E638" s="2" t="inlineStr">
         <is>
-          <t>{'Ok', 'TErr'}</t>
+          <t>{'TErr', 'Ok'}</t>
         </is>
       </c>
       <c r="F638" s="4" t="inlineStr">
@@ -20892,7 +20892,7 @@
       </c>
       <c r="E639" s="2" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>TErr</t>
         </is>
       </c>
       <c r="F639" s="4" t="inlineStr">
@@ -20924,7 +20924,7 @@
       </c>
       <c r="E640" s="2" t="inlineStr">
         <is>
-          <t>{'Ok', 'TErr'}</t>
+          <t>{'TErr', 'Ok'}</t>
         </is>
       </c>
       <c r="F640" s="4" t="inlineStr">
@@ -20956,7 +20956,7 @@
       </c>
       <c r="E641" s="2" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>TErr</t>
         </is>
       </c>
       <c r="F641" s="4" t="inlineStr">
@@ -21308,7 +21308,7 @@
       </c>
       <c r="E652" s="2" t="inlineStr">
         <is>
-          <t>{'Ok', 'TErr'}</t>
+          <t>{'TErr', 'Ok'}</t>
         </is>
       </c>
       <c r="F652" s="4" t="inlineStr">
@@ -21340,7 +21340,7 @@
       </c>
       <c r="E653" s="2" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>TErr</t>
         </is>
       </c>
       <c r="F653" s="4" t="inlineStr">
@@ -28636,7 +28636,7 @@
       </c>
       <c r="E881" s="2" t="inlineStr">
         <is>
-          <t>{'Node', 'any', 'Leaf', 'empty'}</t>
+          <t>{'Leaf', 'Node', 'any', 'empty'}</t>
         </is>
       </c>
       <c r="F881" s="4" t="inlineStr">
@@ -28668,7 +28668,7 @@
       </c>
       <c r="E882" s="2" t="inlineStr">
         <is>
-          <t>Node</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="F882" s="4" t="inlineStr">
@@ -31444,7 +31444,7 @@
       </c>
       <c r="E969" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'bool'}</t>
+          <t>{'bool', 'empty'}</t>
         </is>
       </c>
       <c r="F969" s="3" t="inlineStr">
@@ -31476,12 +31476,12 @@
       </c>
       <c r="E970" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F970" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F970" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -31508,7 +31508,7 @@
       </c>
       <c r="E971" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'bool'}</t>
+          <t>{'bool', 'empty'}</t>
         </is>
       </c>
       <c r="F971" s="3" t="inlineStr">
@@ -31540,12 +31540,12 @@
       </c>
       <c r="E972" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F972" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F972" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -31636,7 +31636,7 @@
       </c>
       <c r="E975" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'bool'}</t>
+          <t>{'bool', 'empty'}</t>
         </is>
       </c>
       <c r="F975" s="3" t="inlineStr">
@@ -31668,12 +31668,12 @@
       </c>
       <c r="E976" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F976" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F976" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -36372,7 +36372,7 @@
       </c>
       <c r="E1123" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'bool'}</t>
+          <t>{'bool', 'empty'}</t>
         </is>
       </c>
       <c r="F1123" s="3" t="inlineStr">
@@ -36404,12 +36404,12 @@
       </c>
       <c r="E1124" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F1124" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F1124" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -36436,7 +36436,7 @@
       </c>
       <c r="E1125" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'bool'}</t>
+          <t>{'bool', 'empty'}</t>
         </is>
       </c>
       <c r="F1125" s="4" t="inlineStr">
@@ -36468,7 +36468,7 @@
       </c>
       <c r="E1126" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="F1126" s="4" t="inlineStr">
@@ -36500,7 +36500,7 @@
       </c>
       <c r="E1127" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'bool'}</t>
+          <t>{'bool', 'empty'}</t>
         </is>
       </c>
       <c r="F1127" s="3" t="inlineStr">
@@ -36532,12 +36532,12 @@
       </c>
       <c r="E1128" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F1128" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F1128" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -36564,7 +36564,7 @@
       </c>
       <c r="E1129" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'bool'}</t>
+          <t>{'bool', 'empty'}</t>
         </is>
       </c>
       <c r="F1129" s="4" t="inlineStr">
@@ -36596,7 +36596,7 @@
       </c>
       <c r="E1130" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="F1130" s="4" t="inlineStr">
@@ -39412,7 +39412,7 @@
       </c>
       <c r="E1218" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'bool'}</t>
+          <t>{'bool', 'empty'}</t>
         </is>
       </c>
       <c r="F1218" s="3" t="inlineStr">
@@ -39444,12 +39444,12 @@
       </c>
       <c r="E1219" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F1219" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F1219" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -39540,7 +39540,7 @@
       </c>
       <c r="E1222" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'bool'}</t>
+          <t>{'bool', 'empty'}</t>
         </is>
       </c>
       <c r="F1222" s="3" t="inlineStr">
@@ -39572,12 +39572,12 @@
       </c>
       <c r="E1223" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F1223" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F1223" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -40852,7 +40852,7 @@
       </c>
       <c r="E1263" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'List[any]'}</t>
+          <t>{'List[any]', 'empty'}</t>
         </is>
       </c>
       <c r="F1263" s="3" t="inlineStr">
@@ -40884,12 +40884,12 @@
       </c>
       <c r="E1264" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F1264" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[any]</t>
+        </is>
+      </c>
+      <c r="F1264" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -41236,7 +41236,7 @@
       </c>
       <c r="E1275" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'bool'}</t>
+          <t>{'bool', 'empty'}</t>
         </is>
       </c>
       <c r="F1275" s="3" t="inlineStr">
@@ -41268,12 +41268,12 @@
       </c>
       <c r="E1276" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F1276" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F1276" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -41812,7 +41812,7 @@
       </c>
       <c r="E1293" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'bool'}</t>
+          <t>{'bool', 'empty'}</t>
         </is>
       </c>
       <c r="F1293" s="3" t="inlineStr">
@@ -41844,12 +41844,12 @@
       </c>
       <c r="E1294" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F1294" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F1294" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -45132,7 +45132,7 @@
         </is>
       </c>
       <c r="D1397" s="2" t="n">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="E1397" s="2" t="inlineStr">
         <is>
@@ -45146,16 +45146,16 @@
     <row r="1398">
       <c r="A1398" s="2" t="inlineStr"/>
       <c r="B1398" s="2" t="inlineStr"/>
-      <c r="C1398" s="2" t="inlineStr">
+      <c r="C1398" s="2" t="inlineStr"/>
+      <c r="D1398" s="2" t="inlineStr"/>
+      <c r="E1398" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D1398" s="2" t="n">
-        <v>366.56</v>
-      </c>
-      <c r="E1398" s="2" t="inlineStr"/>
-      <c r="F1398" s="2" t="inlineStr"/>
+      <c r="F1398" s="2" t="n">
+        <v>79.78</v>
+      </c>
     </row>
     <row r="1399">
       <c r="A1399" s="2" t="inlineStr"/>
@@ -45164,11 +45164,11 @@
       <c r="D1399" s="2" t="inlineStr"/>
       <c r="E1399" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F1399" s="2" t="n">
-        <v>34.11</v>
+        <v>36.17</v>
       </c>
     </row>
   </sheetData>
